--- a/Graphs/stats.xlsx
+++ b/Graphs/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\AI\Pytorch\DogsAndCats\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD85B9-9DEE-498C-90B9-C96BFD77A442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171F4D-C266-4077-969F-54DE78583AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F72B2A9-EC1C-451E-9374-AE71FC350DF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>EPOCHS</t>
   </si>
@@ -116,7 +116,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -189,8 +189,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.777771129752175E-2"/>
-          <c:y val="0.19432911392405064"/>
+          <c:x val="8.6075033517584484E-2"/>
+          <c:y val="0.17778746450151026"/>
           <c:w val="0.93888888888888888"/>
           <c:h val="0.69827172645086033"/>
         </c:manualLayout>
@@ -214,61 +214,8 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -631,14 +578,12 @@
                 <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -894,7 +839,434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$C$17:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$17:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.76649999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A17-4122-BA61-FB0614916FD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="545788256"/>
+        <c:axId val="545790224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="545788256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545790224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545790224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545788256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1472,6 +1844,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1505,6 +2415,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597145</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508E6E91-D2C6-4D0E-B8A9-CF5218AA1745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1810,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853902B6-3832-4C56-B47D-45D53CF68984}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,28 +2912,111 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="C17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="C20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C21">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="C22">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C24">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{A9C9F2A8-548E-4A41-9146-4305C14BC2E2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>List1!B2:B5</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{CBF419D5-CCBF-4021-958E-E0E51B9584F4}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -2016,6 +3045,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{A9C9F2A8-548E-4A41-9146-4305C14BC2E2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>List1!B2:B5</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Graphs/stats.xlsx
+++ b/Graphs/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\AI\Pytorch\DogsAndCats\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65171F4D-C266-4077-969F-54DE78583AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23341A-5C0C-447B-B7A1-899C46CEF81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F72B2A9-EC1C-451E-9374-AE71FC350DF3}"/>
   </bookViews>
@@ -215,7 +215,6 @@
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -970,10 +969,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$C$17:$C$24</c:f>
+              <c:f>List1!$C$17:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1E-4</c:v>
                 </c:pt>
@@ -981,21 +980,54 @@
                   <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.9999999999999995E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>5.9999999999999995E-4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1003,10 +1035,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$B$17:$B$24</c:f>
+              <c:f>List1!$B$17:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.76649999999999996</c:v>
                 </c:pt>
@@ -1014,21 +1046,54 @@
                   <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.78635999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78980000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.79620000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>0.78870000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>0.746</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>0.74</c:v>
                 </c:pt>
               </c:numCache>
@@ -2756,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853902B6-3832-4C56-B47D-45D53CF68984}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,13 +3012,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="C19">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +3026,10 @@
         <v>60</v>
       </c>
       <c r="B20" s="1">
-        <v>0.79620000000000002</v>
+        <v>0.78635999999999995</v>
       </c>
       <c r="C20">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,42 +3037,163 @@
         <v>60</v>
       </c>
       <c r="B21" s="1">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="C21">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1">
-        <v>0.746</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="C22">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
+        <v>3.5E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="C24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>60</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
+        <v>0.78980000000000006</v>
+      </c>
+      <c r="C25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>120</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C26">
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="C29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.78870000000000007</v>
+      </c>
+      <c r="C30">
+        <v>5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C31">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="C32">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C33">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
         <v>0.74</v>
       </c>
-      <c r="C24">
+      <c r="C35">
         <v>1E-3</v>
       </c>
     </row>

--- a/Graphs/stats.xlsx
+++ b/Graphs/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\AI\Pytorch\DogsAndCats\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23341A-5C0C-447B-B7A1-899C46CEF81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52CCF6-A598-4E91-9194-AD3C6B90910A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F72B2A9-EC1C-451E-9374-AE71FC350DF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F72B2A9-EC1C-451E-9374-AE71FC350DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>EPOCHS</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>New architecture</t>
+  </si>
+  <si>
+    <t>New architecture 2.1</t>
   </si>
 </sst>
 </file>
@@ -189,8 +192,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6075033517584484E-2"/>
-          <c:y val="0.17778746450151026"/>
+          <c:x val="8.5931686166021898E-2"/>
+          <c:y val="0.14470402259052034"/>
           <c:w val="0.93888888888888888"/>
           <c:h val="0.69827172645086033"/>
         </c:manualLayout>
@@ -261,7 +264,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F6C5-416E-8AE1-6CFAAC490D2E}"/>
@@ -884,7 +887,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1845654716511904E-2"/>
+          <c:y val="0.20427809925504459"/>
+          <c:w val="0.86223823231745444"/>
+          <c:h val="0.56930374682071117"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -907,65 +920,8 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="0"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
+            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -1099,7 +1055,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A17-4122-BA61-FB0614916FD9}"/>
@@ -1193,6 +1149,328 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545788256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11064026928878772"/>
+          <c:y val="6.0185185185185182E-2"/>
+          <c:w val="0.867137333570972"/>
+          <c:h val="0.77155623625233005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$O$4:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76970000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2917-4699-B1DB-6AA7A001CA31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="551931664"/>
+        <c:axId val="551922808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="551931664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551922808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551922808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1223,7 +1501,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545788256"/>
+        <c:crossAx val="551931664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1371,6 +1649,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -2447,20 +2765,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>598287</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209959</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12499</xdr:rowOff>
+      <xdr:rowOff>63787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184548</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404355</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>29766</xdr:rowOff>
+      <xdr:rowOff>81054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2487,16 +3343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>597145</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101112</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194163</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>212481</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417634</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2516,6 +3372,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>399316</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>534866</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4F4E5B-C5E4-437F-8A2D-BC63728AE5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2821,15 +3713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853902B6-3832-4C56-B47D-45D53CF68984}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2850,8 +3742,11 @@
       <c r="C2">
         <v>0.01</v>
       </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2861,8 +3756,17 @@
       <c r="C3">
         <v>0.02</v>
       </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2872,8 +3776,17 @@
       <c r="C4">
         <v>1E-3</v>
       </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P4">
+        <v>5.0000000000000002E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -2883,8 +3796,17 @@
       <c r="C5">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="P5">
+        <v>1E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -2894,8 +3816,17 @@
       <c r="C6">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="P6">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -2905,8 +3836,17 @@
       <c r="C7">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="P7">
+        <v>2.5000000000000001E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>75</v>
       </c>
@@ -2916,8 +3856,17 @@
       <c r="C8">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P8">
+        <v>3.2499999999999999E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>150</v>
       </c>
@@ -2927,8 +3876,17 @@
       <c r="C9">
         <v>2.5000000000000001E-4</v>
       </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="P9">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>120</v>
       </c>
@@ -2938,8 +3896,17 @@
       <c r="C10">
         <v>1E-4</v>
       </c>
+      <c r="N10">
+        <v>150</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="P10">
+        <v>3.5E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>120</v>
       </c>
@@ -2949,8 +3916,17 @@
       <c r="C11">
         <v>1E-4</v>
       </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="P11">
+        <v>3.7500000000000001E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -2960,8 +3936,17 @@
       <c r="C12">
         <v>1E-4</v>
       </c>
+      <c r="N12">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.77969999999999995</v>
+      </c>
+      <c r="P12">
+        <v>4.0000000000000002E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -2971,13 +3956,33 @@
       <c r="C13">
         <v>5.0000000000000002E-5</v>
       </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.7732</v>
+      </c>
+      <c r="P13">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>75</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="P14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3203,6 +4208,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{A9C9F2A8-548E-4A41-9146-4305C14BC2E2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>List1!B2:B5</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{CBF419D5-CCBF-4021-958E-E0E51B9584F4}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -3231,22 +4252,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{A9C9F2A8-548E-4A41-9146-4305C14BC2E2}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>List1!B2:B5</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
